--- a/docs/Catálogo de Serviços.xlsx
+++ b/docs/Catálogo de Serviços.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jackl\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\!J\Estudos\Escolas\PUC-MG\Sistemas de Informação\2402\pmv-si-2024-2-pe6-t1-g03-gestao-de-academia\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CFD8F8BE-CF1B-469F-860B-D212F280D61E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88658977-E3C2-4DBF-A194-6123F6498AB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C7C510B7-ABF2-4126-B351-27A0F1E95839}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha1 (2)" sheetId="2" r:id="rId1"/>
+    <sheet name="Planilha1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$3:$G$47</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Planilha1!$A$3:$G$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Planilha1 (2)'!$A$3:$E$47</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Planilha1 (2)'!$A$1:$E$47</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="60">
   <si>
     <t>FINACEIRO</t>
   </si>
@@ -59,9 +62,6 @@
     <t>RELATÓRIOS</t>
   </si>
   <si>
-    <t>DIMENSÃO</t>
-  </si>
-  <si>
     <t>SERVIÇO</t>
   </si>
   <si>
@@ -104,9 +104,6 @@
     <t>Gestão de custos e despesas</t>
   </si>
   <si>
-    <t>DRE</t>
-  </si>
-  <si>
     <t>Contratos vendidos</t>
   </si>
   <si>
@@ -195,13 +192,43 @@
   </si>
   <si>
     <t>App Sparta PRO, para gestão na palma da mão</t>
+  </si>
+  <si>
+    <t>Financeiro</t>
+  </si>
+  <si>
+    <t>Instrutor</t>
+  </si>
+  <si>
+    <t>Atleta</t>
+  </si>
+  <si>
+    <t>Atleta / Instrutor</t>
+  </si>
+  <si>
+    <t>Marketing</t>
+  </si>
+  <si>
+    <t>Administrativo</t>
+  </si>
+  <si>
+    <t>Adm / Fin / Mkt</t>
+  </si>
+  <si>
+    <t>Adm / Fin</t>
+  </si>
+  <si>
+    <t>CATEGORIA</t>
+  </si>
+  <si>
+    <t>https://www.profissionaisti.com.br/catalogo-de-servicos-o-que-e-e-por-que-perder-tempo-criando-um/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,8 +244,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="3" tint="0.89999084444715716"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -228,6 +285,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -241,10 +322,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -255,8 +337,39 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -588,41 +701,753 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF378F7-DCA4-4618-AA46-E16B6E5AB848}">
-  <dimension ref="A1:G47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DC46099-8D22-43DD-A5C0-7A18550AE317}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.77734375" style="2" customWidth="1"/>
     <col min="2" max="2" width="55.77734375" style="1" customWidth="1"/>
-    <col min="3" max="7" width="21.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.77734375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="21.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="3.77734375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="13">
+        <f>E6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="10">
+        <f>E7</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+      <c r="B6" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="13">
+        <f>E8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="10">
+        <f>E9</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="7"/>
+      <c r="B8" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="13">
+        <f>E10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="7"/>
+      <c r="B9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="10">
+        <f>E11</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="7"/>
+      <c r="B10" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="7"/>
+      <c r="B11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="7"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="6"/>
+      <c r="B14" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="13">
+        <f t="shared" ref="E7:E47" si="0">E12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="6"/>
+      <c r="B15" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="6"/>
+      <c r="B16" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="6"/>
+      <c r="B17" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="6"/>
+      <c r="B18" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="6"/>
+      <c r="B19" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="6"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="10">
+        <f>E23</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="7"/>
+      <c r="B22" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" s="13">
+        <f>E24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="7"/>
+      <c r="B23" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" s="10">
+        <f>E25</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="7"/>
+      <c r="B24" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="13">
+        <f>E26</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="7"/>
+      <c r="B25" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" s="10">
+        <f>E27</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="7"/>
+      <c r="B26" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="7"/>
+      <c r="B27" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="7"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E29" s="13">
+        <f>E31</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="6"/>
+      <c r="B30" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E30" s="10">
+        <f>E32</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="6"/>
+      <c r="B31" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E31" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="6"/>
+      <c r="B32" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E32" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="6"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E34" s="13">
+        <f>E36</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="7"/>
+      <c r="B35" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E35" s="10">
+        <f>E37</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="7"/>
+      <c r="B36" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E36" s="13">
+        <f>E38</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="7"/>
+      <c r="B37" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E37" s="10">
+        <f>E39</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="7"/>
+      <c r="B38" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E38" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="7"/>
+      <c r="B39" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E39" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="7"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E41" s="13">
+        <f>E43</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="6"/>
+      <c r="B42" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E42" s="10">
+        <f>E44</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="6"/>
+      <c r="B43" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E43" s="13">
+        <f>E45</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="6"/>
+      <c r="B44" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E44" s="10">
+        <f>E46</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="6"/>
+      <c r="B45" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E45" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="6"/>
+      <c r="B46" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E46" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="5"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="12"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A3:E47" xr:uid="{2DC46099-8D22-43DD-A5C0-7A18550AE317}"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="78" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF378F7-DCA4-4618-AA46-E16B6E5AB848}">
+  <dimension ref="A1:G46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.77734375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="55.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.77734375" style="2" customWidth="1"/>
+    <col min="5" max="7" width="21.77734375" style="1" customWidth="1"/>
     <col min="8" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+    </row>
     <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
@@ -631,216 +1456,461 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="1" t="s">
+      <c r="D13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>22</v>
+      <c r="D14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B17" s="1" t="s">
+      <c r="D17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B18" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B18" s="1" t="s">
+      <c r="D18" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B19" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B19" s="1" t="s">
+      <c r="D19" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B20" s="1" t="s">
+      <c r="D21" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B22" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B22" s="1" t="s">
+      <c r="D22" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B23" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B23" s="1" t="s">
+      <c r="D23" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B24" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B24" s="1" t="s">
+      <c r="D24" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B25" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B25" s="1" t="s">
+      <c r="D25" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B26" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B26" s="1" t="s">
+      <c r="D26" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B27" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B27" s="1" t="s">
+      <c r="D27" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B28" s="1" t="s">
+      <c r="D29" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B30" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B30" s="1" t="s">
+      <c r="D30" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B31" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B31" s="1" t="s">
+      <c r="D31" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B32" s="1" t="s">
+      <c r="D34" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B35" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B33" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B35" s="1" t="s">
+      <c r="D35" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B36" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B36" s="1" t="s">
+      <c r="D36" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B37" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B37" s="1" t="s">
+      <c r="D37" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B38" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B38" s="1" t="s">
+      <c r="D38" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B39" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B39" s="1" t="s">
+      <c r="D39" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F40" s="2"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B40" s="1" t="s">
+      <c r="D41" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B42" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B42" s="1" t="s">
+      <c r="D42" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B43" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B43" s="1" t="s">
+      <c r="D43" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B44" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B44" s="1" t="s">
+      <c r="D44" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B45" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B45" s="1" t="s">
+      <c r="D45" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B46" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B46" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B47" s="1" t="s">
-        <v>50</v>
+      <c r="D46" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:G47" xr:uid="{AEF378F7-DCA4-4618-AA46-E16B6E5AB848}"/>
+  <autoFilter ref="A3:G46" xr:uid="{AEF378F7-DCA4-4618-AA46-E16B6E5AB848}"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{BEDB8F65-23D9-4139-8DEA-44CF7F94DB2C}"/>
+  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/docs/Catálogo de Serviços.xlsx
+++ b/docs/Catálogo de Serviços.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\!J\Estudos\Escolas\PUC-MG\Sistemas de Informação\2402\pmv-si-2024-2-pe6-t1-g03-gestao-de-academia\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88658977-E3C2-4DBF-A194-6123F6498AB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72C21206-7234-4E2B-BF00-A161FEFAC8AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C7C510B7-ABF2-4126-B351-27A0F1E95839}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="61">
   <si>
     <t>FINACEIRO</t>
   </si>
@@ -222,6 +222,9 @@
   </si>
   <si>
     <t>https://www.profissionaisti.com.br/catalogo-de-servicos-o-que-e-e-por-que-perder-tempo-criando-um/</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
 </sst>
 </file>
@@ -337,9 +340,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -365,6 +365,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -705,11 +708,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -722,8 +725,8 @@
     <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>58</v>
       </c>
@@ -737,657 +740,661 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+    <row r="3" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F3" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" s="13">
-        <f>E6</f>
+      <c r="C4" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="12">
+        <f t="shared" ref="E4:E9" si="0">E6</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" s="10">
-        <f>E7</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
-      <c r="B6" s="11" t="s">
+      <c r="C5" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="6"/>
+      <c r="B6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" s="13">
-        <f>E8</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" s="10">
-        <f>E9</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="7"/>
-      <c r="B8" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8" s="13">
-        <f>E10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" s="10">
-        <f>E11</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="7"/>
-      <c r="B10" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="7"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="6"/>
-      <c r="B14" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="E14" s="13">
-        <f t="shared" ref="E7:E47" si="0">E12</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="6"/>
-      <c r="B15" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15" s="10">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="6"/>
-      <c r="B16" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="E16" s="13">
+      <c r="C6" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="6"/>
-      <c r="B17" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E17" s="10">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="6"/>
+      <c r="B7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="6"/>
-      <c r="B18" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="E18" s="13">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="6"/>
+      <c r="B8" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="6"/>
+      <c r="B10" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="6"/>
+      <c r="B11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="6"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="5"/>
+      <c r="B14" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="12">
+        <f t="shared" ref="E14:E19" si="1">E12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="5"/>
+      <c r="B15" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="5"/>
+      <c r="B16" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="5"/>
+      <c r="B17" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="5"/>
+      <c r="B18" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="6"/>
-      <c r="B19" s="8" t="s">
+      <c r="A19" s="5"/>
+      <c r="B19" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E19" s="10">
-        <f t="shared" si="0"/>
+      <c r="C19" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="9">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="6"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E21" s="10">
+      <c r="D21" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="9">
         <f>E23</f>
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="7"/>
-      <c r="B22" s="11" t="s">
+      <c r="A22" s="6"/>
+      <c r="B22" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D22" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="E22" s="13">
+      <c r="D22" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" s="12">
         <f>E24</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8" t="s">
+      <c r="A23" s="6"/>
+      <c r="B23" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D23" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E23" s="10">
+      <c r="D23" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" s="9">
         <f>E25</f>
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="7"/>
-      <c r="B24" s="11" t="s">
+      <c r="A24" s="6"/>
+      <c r="B24" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="E24" s="13">
+      <c r="D24" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="12">
         <f>E26</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="7"/>
-      <c r="B25" s="8" t="s">
+      <c r="A25" s="6"/>
+      <c r="B25" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D25" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E25" s="10">
+      <c r="D25" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" s="9">
         <f>E27</f>
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="7"/>
-      <c r="B26" s="11" t="s">
+      <c r="A26" s="6"/>
+      <c r="B26" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D26" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="E26" s="13">
+      <c r="D26" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="7"/>
-      <c r="B27" s="8" t="s">
+      <c r="A27" s="6"/>
+      <c r="B27" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D27" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E27" s="10">
+      <c r="D27" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="7"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
+      <c r="A28" s="6"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C29" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D29" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="E29" s="13">
+      <c r="D29" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E29" s="12">
         <f>E31</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="6"/>
-      <c r="B30" s="8" t="s">
+      <c r="A30" s="5"/>
+      <c r="B30" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D30" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E30" s="10">
+      <c r="D30" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E30" s="9">
         <f>E32</f>
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="6"/>
-      <c r="B31" s="11" t="s">
+      <c r="A31" s="5"/>
+      <c r="B31" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="E31" s="13">
+      <c r="C31" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E31" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="6"/>
-      <c r="B32" s="8" t="s">
+      <c r="A32" s="5"/>
+      <c r="B32" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D32" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E32" s="10">
+      <c r="D32" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E32" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="6"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
+      <c r="A33" s="5"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C34" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="E34" s="13">
+      <c r="C34" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E34" s="12">
         <f>E36</f>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="7"/>
-      <c r="B35" s="8" t="s">
+      <c r="A35" s="6"/>
+      <c r="B35" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="E35" s="10">
+      <c r="C35" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E35" s="9">
         <f>E37</f>
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="7"/>
-      <c r="B36" s="11" t="s">
+      <c r="A36" s="6"/>
+      <c r="B36" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C36" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D36" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="E36" s="13">
+      <c r="C36" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E36" s="12">
         <f>E38</f>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="7"/>
-      <c r="B37" s="8" t="s">
+      <c r="A37" s="6"/>
+      <c r="B37" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C37" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="E37" s="10">
+      <c r="C37" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E37" s="9">
         <f>E39</f>
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="7"/>
-      <c r="B38" s="11" t="s">
+      <c r="A38" s="6"/>
+      <c r="B38" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C38" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D38" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="E38" s="13">
+      <c r="C38" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E38" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="7"/>
-      <c r="B39" s="8" t="s">
+      <c r="A39" s="6"/>
+      <c r="B39" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C39" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="E39" s="10">
+      <c r="C39" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E39" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="7"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
+      <c r="A40" s="6"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="6" t="s">
+      <c r="A41" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B41" s="11" t="s">
+      <c r="B41" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C41" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D41" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E41" s="13">
+      <c r="C41" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E41" s="12">
         <f>E43</f>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="6"/>
-      <c r="B42" s="8" t="s">
+      <c r="A42" s="5"/>
+      <c r="B42" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="C42" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D42" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E42" s="10">
+      <c r="D42" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E42" s="9">
         <f>E44</f>
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="6"/>
-      <c r="B43" s="11" t="s">
+      <c r="A43" s="5"/>
+      <c r="B43" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C43" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D43" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="E43" s="13">
+      <c r="C43" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E43" s="12">
         <f>E45</f>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="6"/>
-      <c r="B44" s="8" t="s">
+      <c r="A44" s="5"/>
+      <c r="B44" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C44" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E44" s="10">
+      <c r="C44" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E44" s="9">
         <f>E46</f>
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="6"/>
-      <c r="B45" s="11" t="s">
+      <c r="A45" s="5"/>
+      <c r="B45" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C45" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D45" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E45" s="13">
+      <c r="C45" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E45" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="6"/>
-      <c r="B46" s="8" t="s">
+      <c r="A46" s="5"/>
+      <c r="B46" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C46" s="9" t="s">
+      <c r="C46" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D46" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E46" s="10">
+      <c r="D46" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E46" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="5"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="12"/>
+      <c r="A47" s="4"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="11"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:E47" xr:uid="{2DC46099-8D22-43DD-A5C0-7A18550AE317}"/>
@@ -1417,15 +1424,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
